--- a/Examples.Library/src/main/resources/xlsx/Template_InlineTemplate.xlsx
+++ b/Examples.Library/src/main/resources/xlsx/Template_InlineTemplate.xlsx
@@ -343,26 +343,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>318652</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1005681</xdr:colOff>
+      <xdr:colOff>1693583</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>489311</xdr:rowOff>
+      <xdr:rowOff>494608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -381,58 +375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="200025"/>
-          <a:ext cx="615156" cy="615156"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1482725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>488373</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1902C5A2-2CDB-E24F-93E5-EBF33A24376A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5626100" y="1066800"/>
-          <a:ext cx="1508125" cy="482600"/>
+          <a:off x="4738252" y="159327"/>
+          <a:ext cx="3023622" cy="487681"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -734,7 +678,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
